--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2596,13 +2596,7917 @@
       <c r="B136" t="n">
         <v>2</v>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
         <v>2</v>
       </c>
       <c r="F136" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:45:13</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:45:23</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:45:34</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:45:44</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:45:55</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:05</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:16</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:26</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:36</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:47</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:46:57</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:07</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:17</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:28</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:38</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:48</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:47:58</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:48:08</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:48:19</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:48:29</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:48:39</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:48:50</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:00</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:10</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:20</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:30</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:41</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:49:51</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:01</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:12</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:22</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:32</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:42</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:50:53</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:03</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:13</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:24</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:34</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:45</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:51:55</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:05</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:15</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:27</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:37</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:47</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:52:57</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:08</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:18</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:28</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:39</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:49</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:53:59</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:54:09</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:54:19</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:54:30</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:54:40</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:54:51</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:02</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:12</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:22</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:32</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:43</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:55:53</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:03</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:14</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:24</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:35</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:45</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:56:55</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:05</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:16</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:26</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:37</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:47</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:57:58</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:08</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:18</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:29</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:39</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:49</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:58:59</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:59:09</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:59:20</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:59:30</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:59:40</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2024-11-14 15:59:51</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:01</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:11</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:21</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:32</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:42</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:00:52</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:02</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:13</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:23</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:33</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:43</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:01:54</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:04</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:14</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:25</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:35</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:45</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:02:55</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:05</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:16</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:26</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:36</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:47</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:03:57</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:07</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:18</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:28</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:38</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:48</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:04:58</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:05:09</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:05:19</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:05:29</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:05:39</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:05:49</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:00</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:11</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:21</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:31</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:41</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:06:52</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:02</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:12</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:22</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:33</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:43</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:07:54</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:04</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:15</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:25</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:35</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:46</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:08:56</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:07</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:17</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:27</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:37</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:48</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:09:58</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:08</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:18</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:28</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:38</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:48</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:10:59</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:11:09</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:11:19</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:11:29</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:11:40</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:11:50</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:01</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:11</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:22</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:32</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:42</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:12:52</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:02</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:13</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:23</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:33</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>2</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:44</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:13:54</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:05</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:15</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:25</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:35</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:46</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:14:56</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:07</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:17</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:27</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:37</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:47</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:15:58</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:08</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:18</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:28</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:38</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:49</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:16:59</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:17:09</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:17:20</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:17:30</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:17:40</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:17:51</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:01</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>2</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:11</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>2</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:21</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>2</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:32</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>2</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:42</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:18:52</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>2</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2</v>
+      </c>
+      <c r="F333" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:02</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>2</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:12</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>2</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:23</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:33</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>2</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:43</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>2</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2</v>
+      </c>
+      <c r="F338" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:19:53</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2</v>
+      </c>
+      <c r="F339" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:04</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>2</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:14</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>2</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:24</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2</v>
+      </c>
+      <c r="F342" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:34</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>2</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:45</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:20:55</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+      <c r="E345" t="n">
+        <v>2</v>
+      </c>
+      <c r="F345" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:05</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>2</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2</v>
+      </c>
+      <c r="F346" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:16</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>2</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:26</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2</v>
+      </c>
+      <c r="F348" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:37</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>2</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:47</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>2</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2</v>
+      </c>
+      <c r="F350" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:21:57</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2</v>
+      </c>
+      <c r="F351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:07</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:18</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>2</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:28</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>2</v>
+      </c>
+      <c r="F354" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:38</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>2</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2</v>
+      </c>
+      <c r="F355" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:49</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>2</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2</v>
+      </c>
+      <c r="F356" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:22:59</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:23:09</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2</v>
+      </c>
+      <c r="F358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:23:20</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>2</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:23:30</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2</v>
+      </c>
+      <c r="F360" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:23:40</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2</v>
+      </c>
+      <c r="F361" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:23:50</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>2</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2</v>
+      </c>
+      <c r="F362" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>2</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2</v>
+      </c>
+      <c r="F363" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:11</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2</v>
+      </c>
+      <c r="F364" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:21</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2</v>
+      </c>
+      <c r="F365" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:31</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>2</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2</v>
+      </c>
+      <c r="F366" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:42</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>2</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:24:52</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>2</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2</v>
+      </c>
+      <c r="F368" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:02</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>2</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2</v>
+      </c>
+      <c r="F369" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:13</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:23</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>2</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2</v>
+      </c>
+      <c r="F371" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:33</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2</v>
+      </c>
+      <c r="F372" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:43</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>2</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2</v>
+      </c>
+      <c r="F373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:25:54</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>2</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2</v>
+      </c>
+      <c r="F374" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:04</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>2</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:14</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>2</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2</v>
+      </c>
+      <c r="F376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:24</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>2</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2</v>
+      </c>
+      <c r="F377" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:35</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>2</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2</v>
+      </c>
+      <c r="F378" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:45</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>2</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:26:55</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>2</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2</v>
+      </c>
+      <c r="F380" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:06</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>2</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2</v>
+      </c>
+      <c r="F381" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:16</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>2</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2</v>
+      </c>
+      <c r="F382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:26</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>2</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2</v>
+      </c>
+      <c r="F383" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:36</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>2</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2</v>
+      </c>
+      <c r="F384" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:46</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>2</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2</v>
+      </c>
+      <c r="F385" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:27:57</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>2</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2</v>
+      </c>
+      <c r="F386" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:07</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>2</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:17</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>2</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2</v>
+      </c>
+      <c r="F388" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:27</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2</v>
+      </c>
+      <c r="F389" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:38</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>2</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2</v>
+      </c>
+      <c r="F390" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:48</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>2</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:28:58</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>2</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2</v>
+      </c>
+      <c r="F392" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:29:09</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>2</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2</v>
+      </c>
+      <c r="F393" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:29:19</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>2</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2</v>
+      </c>
+      <c r="F394" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:29:30</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>2</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:29:40</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>2</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2</v>
+      </c>
+      <c r="F396" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:29:50</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>2</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2</v>
+      </c>
+      <c r="F397" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>2</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2</v>
+      </c>
+      <c r="F398" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:10</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2</v>
+      </c>
+      <c r="F399" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:21</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>2</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2</v>
+      </c>
+      <c r="F400" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:31</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2</v>
+      </c>
+      <c r="F401" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:41</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>2</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:30:52</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>2</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:02</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>2</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:12</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>2</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2</v>
+      </c>
+      <c r="F405" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:23</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>2</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2</v>
+      </c>
+      <c r="F406" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:33</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>2</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2</v>
+      </c>
+      <c r="F407" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:43</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>2</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2</v>
+      </c>
+      <c r="F408" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:31:54</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>2</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2</v>
+      </c>
+      <c r="F409" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:04</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>2</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2</v>
+      </c>
+      <c r="F410" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:14</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>2</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:24</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>2</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2</v>
+      </c>
+      <c r="F412" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:35</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>2</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2</v>
+      </c>
+      <c r="F413" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:45</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>2</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2</v>
+      </c>
+      <c r="F414" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:32:55</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>2</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2</v>
+      </c>
+      <c r="F415" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:05</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>2</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2</v>
+      </c>
+      <c r="F416" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:16</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>2</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2</v>
+      </c>
+      <c r="F417" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:26</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>2</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2</v>
+      </c>
+      <c r="F418" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:37</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>2</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2</v>
+      </c>
+      <c r="F419" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:47</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>2</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2</v>
+      </c>
+      <c r="F420" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:33:57</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>2</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2</v>
+      </c>
+      <c r="F421" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:07</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>2</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2</v>
+      </c>
+      <c r="F422" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:18</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>2</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2</v>
+      </c>
+      <c r="F423" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:28</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>2</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2</v>
+      </c>
+      <c r="F424" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:38</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2</v>
+      </c>
+      <c r="F425" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:48</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>2</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2</v>
+      </c>
+      <c r="F426" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:34:59</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2</v>
+      </c>
+      <c r="F427" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:35:09</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>2</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2</v>
+      </c>
+      <c r="F428" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:35:19</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2</v>
+      </c>
+      <c r="F429" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:35:30</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2</v>
+      </c>
+      <c r="F430" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:35:40</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>2</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2</v>
+      </c>
+      <c r="F431" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:35:50</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>2</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2</v>
+      </c>
+      <c r="F432" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>2</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2</v>
+      </c>
+      <c r="F433" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:11</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>2</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2</v>
+      </c>
+      <c r="F434" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:21</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>2</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2</v>
+      </c>
+      <c r="F435" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:31</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>2</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2</v>
+      </c>
+      <c r="F436" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:42</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>2</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2</v>
+      </c>
+      <c r="F437" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:36:52</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2</v>
+      </c>
+      <c r="F438" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:02</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>2</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:13</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>2</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2</v>
+      </c>
+      <c r="F440" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:23</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>2</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2</v>
+      </c>
+      <c r="F441" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:33</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>2</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2</v>
+      </c>
+      <c r="F442" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:43</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>2</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2</v>
+      </c>
+      <c r="F443" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:37:53</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>2</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2</v>
+      </c>
+      <c r="F444" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:04</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>2</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2</v>
+      </c>
+      <c r="F445" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:14</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>2</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2</v>
+      </c>
+      <c r="F446" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:24</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>2</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2</v>
+      </c>
+      <c r="F447" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:35</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>2</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2</v>
+      </c>
+      <c r="F448" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:45</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>2</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2</v>
+      </c>
+      <c r="F449" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:38:55</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>2</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2</v>
+      </c>
+      <c r="F450" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:06</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>2</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2</v>
+      </c>
+      <c r="F451" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:16</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>2</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2</v>
+      </c>
+      <c r="F452" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:27</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>2</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2</v>
+      </c>
+      <c r="F453" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:37</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>2</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2</v>
+      </c>
+      <c r="F454" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:47</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>2</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2</v>
+      </c>
+      <c r="F455" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:39:58</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>2</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2</v>
+      </c>
+      <c r="F456" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:08</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>2</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2</v>
+      </c>
+      <c r="F457" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:18</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>2</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2</v>
+      </c>
+      <c r="F458" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:28</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:39</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+      <c r="E460" t="n">
+        <v>2</v>
+      </c>
+      <c r="F460" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:49</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>2</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2</v>
+      </c>
+      <c r="F461" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:40:59</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>2</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2</v>
+      </c>
+      <c r="F462" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:41:10</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2</v>
+      </c>
+      <c r="F463" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:41:20</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>2</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2</v>
+      </c>
+      <c r="F464" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:41:30</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2</v>
+      </c>
+      <c r="F465" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:41:41</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2</v>
+      </c>
+      <c r="F466" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:41:51</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2</v>
+      </c>
+      <c r="F467" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:02</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2</v>
+      </c>
+      <c r="F468" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:12</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2</v>
+      </c>
+      <c r="F469" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:22</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2</v>
+      </c>
+      <c r="F470" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:33</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2</v>
+      </c>
+      <c r="F471" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:43</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2</v>
+      </c>
+      <c r="F472" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:42:53</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2</v>
+      </c>
+      <c r="F473" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:04</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:14</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:24</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:35</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2</v>
+      </c>
+      <c r="F477" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:45</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2</v>
+      </c>
+      <c r="F478" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:43:55</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2</v>
+      </c>
+      <c r="F479" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:05</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:16</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2</v>
+      </c>
+      <c r="F481" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:26</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2</v>
+      </c>
+      <c r="F482" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:36</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2</v>
+      </c>
+      <c r="F483" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:46</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2</v>
+      </c>
+      <c r="F484" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:44:57</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E485" t="n">
+        <v>2</v>
+      </c>
+      <c r="F485" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:07</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2</v>
+      </c>
+      <c r="F486" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:17</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+      <c r="E487" t="n">
+        <v>2</v>
+      </c>
+      <c r="F487" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:27</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="E488" t="n">
+        <v>2</v>
+      </c>
+      <c r="F488" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:38</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2</v>
+      </c>
+      <c r="F489" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:48</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+      <c r="E490" t="n">
+        <v>2</v>
+      </c>
+      <c r="F490" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:45:58</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2</v>
+      </c>
+      <c r="F491" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:46:09</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="E492" t="n">
+        <v>2</v>
+      </c>
+      <c r="F492" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:46:19</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+      <c r="E493" t="n">
+        <v>2</v>
+      </c>
+      <c r="F493" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:46:29</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="E494" t="n">
+        <v>2</v>
+      </c>
+      <c r="F494" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:46:40</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="E495" t="n">
+        <v>2</v>
+      </c>
+      <c r="F495" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:46:50</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="E496" t="n">
+        <v>2</v>
+      </c>
+      <c r="F496" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E497" t="n">
+        <v>2</v>
+      </c>
+      <c r="F497" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:10</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2</v>
+      </c>
+      <c r="F498" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:21</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="E499" t="n">
+        <v>2</v>
+      </c>
+      <c r="F499" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:31</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2</v>
+      </c>
+      <c r="F500" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:41</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2</v>
+      </c>
+      <c r="F501" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:47:51</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" t="n">
+        <v>2</v>
+      </c>
+      <c r="F502" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:01</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+      <c r="E503" t="n">
+        <v>2</v>
+      </c>
+      <c r="F503" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:12</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+      <c r="E504" t="n">
+        <v>2</v>
+      </c>
+      <c r="F504" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:22</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2</v>
+      </c>
+      <c r="F505" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:32</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2</v>
+      </c>
+      <c r="F506" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:42</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2</v>
+      </c>
+      <c r="F507" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:48:52</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+      <c r="E508" t="n">
+        <v>2</v>
+      </c>
+      <c r="F508" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:03</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+      <c r="E509" t="n">
+        <v>2</v>
+      </c>
+      <c r="F509" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:13</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2</v>
+      </c>
+      <c r="F510" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:23</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+      <c r="E511" t="n">
+        <v>2</v>
+      </c>
+      <c r="F511" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:33</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2</v>
+      </c>
+      <c r="F512" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:44</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="E513" t="n">
+        <v>2</v>
+      </c>
+      <c r="F513" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:49:54</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+      <c r="E514" t="n">
+        <v>2</v>
+      </c>
+      <c r="F514" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:04</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="E515" t="n">
+        <v>2</v>
+      </c>
+      <c r="F515" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:15</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2</v>
+      </c>
+      <c r="F516" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:25</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2</v>
+      </c>
+      <c r="F517" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:35</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2</v>
+      </c>
+      <c r="F518" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:45</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2</v>
+      </c>
+      <c r="F519" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:50:55</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2</v>
+      </c>
+      <c r="F520" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:05</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2</v>
+      </c>
+      <c r="F521" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:16</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2</v>
+      </c>
+      <c r="F522" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:26</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2</v>
+      </c>
+      <c r="F523" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:36</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2</v>
+      </c>
+      <c r="F524" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:47</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2</v>
+      </c>
+      <c r="F525" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:51:57</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2</v>
+      </c>
+      <c r="F526" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:08</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2</v>
+      </c>
+      <c r="F527" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:18</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="E528" t="n">
+        <v>2</v>
+      </c>
+      <c r="F528" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:28</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2</v>
+      </c>
+      <c r="F529" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:38</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:48</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2</v>
+      </c>
+      <c r="F531" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:52:59</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="E532" t="n">
+        <v>2</v>
+      </c>
+      <c r="F532" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:53:09</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+      <c r="E533" t="n">
+        <v>2</v>
+      </c>
+      <c r="F533" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:53:19</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+      <c r="E534" t="n">
+        <v>2</v>
+      </c>
+      <c r="F534" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:53:29</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+      <c r="E535" t="n">
+        <v>2</v>
+      </c>
+      <c r="F535" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:53:39</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:53:50</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2</v>
+      </c>
+      <c r="F537" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+      <c r="E538" t="n">
+        <v>2</v>
+      </c>
+      <c r="F538" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:10</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E539" t="n">
+        <v>2</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:21</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:31</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:41</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2</v>
+      </c>
+      <c r="F542" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:54:52</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+      <c r="E543" t="n">
+        <v>2</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:02</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2</v>
+      </c>
+      <c r="F544" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:12</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:23</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+      <c r="E546" t="n">
+        <v>2</v>
+      </c>
+      <c r="F546" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:33</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2</v>
+      </c>
+      <c r="F547" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:43</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2</v>
+      </c>
+      <c r="F548" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:55:53</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2</v>
+      </c>
+      <c r="F549" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:04</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2</v>
+      </c>
+      <c r="F550" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:14</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+      <c r="E551" t="n">
+        <v>2</v>
+      </c>
+      <c r="F551" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:25</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="E552" t="n">
+        <v>2</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:35</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+      <c r="E553" t="n">
+        <v>2</v>
+      </c>
+      <c r="F553" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:45</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2</v>
+      </c>
+      <c r="F554" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:56:55</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:05</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="E556" t="n">
+        <v>2</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:15</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2</v>
+      </c>
+      <c r="F557" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:26</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:36</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+      <c r="E559" t="n">
+        <v>3</v>
+      </c>
+      <c r="F559" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:46</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>2</v>
+      </c>
+      <c r="E560" t="n">
+        <v>3</v>
+      </c>
+      <c r="F560" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:57:56</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>2</v>
+      </c>
+      <c r="E561" t="n">
+        <v>3</v>
+      </c>
+      <c r="F561" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:07</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="E562" t="n">
+        <v>3</v>
+      </c>
+      <c r="F562" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:17</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+      <c r="E563" t="n">
+        <v>3</v>
+      </c>
+      <c r="F563" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:27</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>2</v>
+      </c>
+      <c r="E564" t="n">
+        <v>3</v>
+      </c>
+      <c r="F564" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:37</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>2</v>
+      </c>
+      <c r="E565" t="n">
+        <v>3</v>
+      </c>
+      <c r="F565" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:48</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>2</v>
+      </c>
+      <c r="E566" t="n">
+        <v>3</v>
+      </c>
+      <c r="F566" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:58:58</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>2</v>
+      </c>
+      <c r="E567" t="n">
+        <v>3</v>
+      </c>
+      <c r="F567" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:59:09</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+      <c r="E568" t="n">
+        <v>3</v>
+      </c>
+      <c r="F568" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:59:19</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="E569" t="n">
+        <v>3</v>
+      </c>
+      <c r="F569" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:59:29</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+      <c r="E570" t="n">
+        <v>3</v>
+      </c>
+      <c r="F570" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:59:39</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>2</v>
+      </c>
+      <c r="E571" t="n">
+        <v>3</v>
+      </c>
+      <c r="F571" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2024-11-14 16:59:50</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>2</v>
+      </c>
+      <c r="E572" t="n">
+        <v>3</v>
+      </c>
+      <c r="F572" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+      <c r="E573" t="n">
+        <v>3</v>
+      </c>
+      <c r="F573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:10</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+      <c r="E574" t="n">
+        <v>3</v>
+      </c>
+      <c r="F574" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:20</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+      <c r="E575" t="n">
+        <v>3</v>
+      </c>
+      <c r="F575" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:30</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+      <c r="E576" t="n">
+        <v>3</v>
+      </c>
+      <c r="F576" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:41</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="E577" t="n">
+        <v>3</v>
+      </c>
+      <c r="F577" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:00:51</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+      <c r="E578" t="n">
+        <v>3</v>
+      </c>
+      <c r="F578" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:01</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+      <c r="E579" t="n">
+        <v>3</v>
+      </c>
+      <c r="F579" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:11</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+      <c r="E580" t="n">
+        <v>3</v>
+      </c>
+      <c r="F580" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:22</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+      <c r="E581" t="n">
+        <v>3</v>
+      </c>
+      <c r="F581" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:32</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+      <c r="E582" t="n">
+        <v>3</v>
+      </c>
+      <c r="F582" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:42</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0</v>
+      </c>
+      <c r="E583" t="n">
+        <v>3</v>
+      </c>
+      <c r="F583" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:01:52</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0</v>
+      </c>
+      <c r="E584" t="n">
+        <v>3</v>
+      </c>
+      <c r="F584" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:02</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0</v>
+      </c>
+      <c r="E585" t="n">
+        <v>3</v>
+      </c>
+      <c r="F585" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:12</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0</v>
+      </c>
+      <c r="E586" t="n">
+        <v>3</v>
+      </c>
+      <c r="F586" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:23</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0</v>
+      </c>
+      <c r="E587" t="n">
+        <v>3</v>
+      </c>
+      <c r="F587" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:33</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0</v>
+      </c>
+      <c r="E588" t="n">
+        <v>3</v>
+      </c>
+      <c r="F588" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:43</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0</v>
+      </c>
+      <c r="E589" t="n">
+        <v>3</v>
+      </c>
+      <c r="F589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:02:53</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0</v>
+      </c>
+      <c r="E590" t="n">
+        <v>3</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:03</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0</v>
+      </c>
+      <c r="E591" t="n">
+        <v>3</v>
+      </c>
+      <c r="F591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:13</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0</v>
+      </c>
+      <c r="E592" t="n">
+        <v>3</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:24</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0</v>
+      </c>
+      <c r="E593" t="n">
+        <v>3</v>
+      </c>
+      <c r="F593" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:34</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0</v>
+      </c>
+      <c r="E594" t="n">
+        <v>3</v>
+      </c>
+      <c r="F594" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:44</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0</v>
+      </c>
+      <c r="E595" t="n">
+        <v>3</v>
+      </c>
+      <c r="F595" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:03:55</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0</v>
+      </c>
+      <c r="E596" t="n">
+        <v>3</v>
+      </c>
+      <c r="F596" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:05</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0</v>
+      </c>
+      <c r="E597" t="n">
+        <v>3</v>
+      </c>
+      <c r="F597" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:15</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0</v>
+      </c>
+      <c r="E598" t="n">
+        <v>3</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:25</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0</v>
+      </c>
+      <c r="E599" t="n">
+        <v>3</v>
+      </c>
+      <c r="F599" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:35</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0</v>
+      </c>
+      <c r="E600" t="n">
+        <v>3</v>
+      </c>
+      <c r="F600" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:45</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0</v>
+      </c>
+      <c r="E601" t="n">
+        <v>3</v>
+      </c>
+      <c r="F601" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:04:55</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0</v>
+      </c>
+      <c r="E602" t="n">
+        <v>3</v>
+      </c>
+      <c r="F602" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:06</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0</v>
+      </c>
+      <c r="E603" t="n">
+        <v>3</v>
+      </c>
+      <c r="F603" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:16</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0</v>
+      </c>
+      <c r="E604" t="n">
+        <v>3</v>
+      </c>
+      <c r="F604" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:26</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0</v>
+      </c>
+      <c r="E605" t="n">
+        <v>3</v>
+      </c>
+      <c r="F605" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:36</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0</v>
+      </c>
+      <c r="E606" t="n">
+        <v>3</v>
+      </c>
+      <c r="F606" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:46</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>0</v>
+      </c>
+      <c r="E607" t="n">
+        <v>3</v>
+      </c>
+      <c r="F607" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:05:56</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0</v>
+      </c>
+      <c r="E608" t="n">
+        <v>3</v>
+      </c>
+      <c r="F608" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:06:06</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0</v>
+      </c>
+      <c r="E609" t="n">
+        <v>3</v>
+      </c>
+      <c r="F609" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:06:17</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0</v>
+      </c>
+      <c r="E610" t="n">
+        <v>3</v>
+      </c>
+      <c r="F610" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:06:27</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0</v>
+      </c>
+      <c r="E611" t="n">
+        <v>3</v>
+      </c>
+      <c r="F611" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:06:37</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0</v>
+      </c>
+      <c r="E612" t="n">
+        <v>3</v>
+      </c>
+      <c r="F612" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:06:47</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0</v>
+      </c>
+      <c r="E613" t="n">
+        <v>3</v>
+      </c>
+      <c r="F613" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:31:40</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:31:51</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:01</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:11</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:22</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:32</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:42</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:32:52</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:02</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:12</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:22</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:33</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:43</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:33:53</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:34:03</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:34:13</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-11-14 17:34:24</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0</v>
+      </c>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="n">
+        <v>0</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,12 +996,412 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:15</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:25</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:35</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:45</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:57:56</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:06</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:16</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:26</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:36</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:47</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:58:58</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:18</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:28</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:38</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:48</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-15 08:59:59</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:00:09</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:00:19</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:00:30</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:00:40</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:00:51</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:01</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:11</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
         <v>2</v>
       </c>
     </row>

--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1396,12 +1396,764 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>2</v>
       </c>
       <c r="F61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:21</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:32</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:42</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:01:52</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:02</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:13</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:23</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:33</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:43</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:02:54</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:04</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:14</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:24</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:35</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:45</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:03:55</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:05</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:16</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:26</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:36</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:47</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:04:57</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:17</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:28</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:38</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:48</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:05:58</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:08</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:18</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:29</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:39</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:49</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:06:59</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:07:10</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:07:20</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:07:30</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:07:40</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:07:51</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:01</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:12</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:22</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:32</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:43</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:08:53</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:09:03</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-11-15 09:09:13</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
         <v>2</v>
       </c>
     </row>
